--- a/SuppXLS/Scen_BAU_Ble_Fix_15p.xlsx
+++ b/SuppXLS/Scen_BAU_Ble_Fix_15p.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FA21DF-4C6B-4DC4-B6A3-55AA942E57EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EFB78C-D1A0-4B5D-B2F9-8677708309E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="65">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -278,9 +278,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -583,7 +584,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -756,6 +757,48 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="10" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1119,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:Y109"/>
+  <dimension ref="B1:Y157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W102" sqref="V102:W109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110:O157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,28 +1312,28 @@
         <v>1</v>
       </c>
       <c r="H5" s="17">
-        <v>0</v>
+        <v>6.6022474682462001E-2</v>
       </c>
       <c r="I5" s="17">
-        <v>0</v>
+        <v>6.6866847595195691E-2</v>
       </c>
       <c r="J5" s="17">
-        <v>0</v>
+        <v>6.6916171569988525E-2</v>
       </c>
       <c r="K5" s="17">
-        <v>0</v>
+        <v>6.720305041563665E-2</v>
       </c>
       <c r="L5" s="17">
-        <v>0</v>
+        <v>6.7363701237192652E-2</v>
       </c>
       <c r="M5" s="17">
-        <v>0</v>
+        <v>6.7385372143901417E-2</v>
       </c>
       <c r="N5" s="17">
-        <v>0</v>
+        <v>6.7293660334440203E-2</v>
       </c>
       <c r="O5" s="17">
-        <v>0</v>
+        <v>6.7107626410048637E-2</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
@@ -1341,28 +1384,28 @@
         <v>1</v>
       </c>
       <c r="H7" s="17">
-        <v>0</v>
+        <v>3.8560214180194803E-4</v>
       </c>
       <c r="I7" s="17">
-        <v>0</v>
+        <v>4.0993082795561089E-4</v>
       </c>
       <c r="J7" s="17">
-        <v>0</v>
+        <v>3.9667519594648081E-4</v>
       </c>
       <c r="K7" s="17">
-        <v>0</v>
+        <v>3.8731763460164031E-4</v>
       </c>
       <c r="L7" s="17">
-        <v>0</v>
+        <v>3.8039816162562266E-4</v>
       </c>
       <c r="M7" s="17">
-        <v>0</v>
+        <v>3.756043637558685E-4</v>
       </c>
       <c r="N7" s="17">
-        <v>0</v>
+        <v>3.7237492655631504E-4</v>
       </c>
       <c r="O7" s="17">
-        <v>0</v>
+        <v>3.7043110191395227E-4</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
@@ -1608,28 +1651,28 @@
         <v>1</v>
       </c>
       <c r="H14" s="17">
-        <v>0</v>
+        <v>2.230512181752852E-3</v>
       </c>
       <c r="I14" s="17">
-        <v>0</v>
+        <v>2.0727654987758048E-3</v>
       </c>
       <c r="J14" s="17">
-        <v>0</v>
+        <v>2.1478539767021609E-3</v>
       </c>
       <c r="K14" s="17">
-        <v>0</v>
+        <v>2.1444447517062876E-3</v>
       </c>
       <c r="L14" s="17">
-        <v>0</v>
+        <v>2.0972000594459425E-3</v>
       </c>
       <c r="M14" s="17">
-        <v>0</v>
+        <v>2.0394973065404453E-3</v>
       </c>
       <c r="N14" s="17">
-        <v>0</v>
+        <v>2.003180565968737E-3</v>
       </c>
       <c r="O14" s="17">
-        <v>0</v>
+        <v>1.9767208533010543E-3</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
@@ -1680,28 +1723,28 @@
         <v>1</v>
       </c>
       <c r="H16" s="17">
-        <v>0</v>
+        <v>1.1946657494881176E-4</v>
       </c>
       <c r="I16" s="17">
-        <v>0</v>
+        <v>9.2535630032186518E-5</v>
       </c>
       <c r="J16" s="17">
-        <v>0</v>
+        <v>9.5362028371448988E-5</v>
       </c>
       <c r="K16" s="17">
-        <v>0</v>
+        <v>9.455541761694182E-5</v>
       </c>
       <c r="L16" s="17">
-        <v>0</v>
+        <v>9.1309114051888244E-5</v>
       </c>
       <c r="M16" s="17">
-        <v>0</v>
+        <v>8.7596123085140028E-5</v>
       </c>
       <c r="N16" s="17">
-        <v>0</v>
+        <v>8.5397511319100229E-5</v>
       </c>
       <c r="O16" s="17">
-        <v>0</v>
+        <v>8.3974521541194786E-5</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
@@ -1973,28 +2016,28 @@
         <v>1</v>
       </c>
       <c r="H24" s="17">
-        <v>0</v>
+        <v>3.9857899708616182E-2</v>
       </c>
       <c r="I24" s="17">
-        <v>0</v>
+        <v>4.0165939062874439E-2</v>
       </c>
       <c r="J24" s="17">
-        <v>0</v>
+        <v>4.0285501102027707E-2</v>
       </c>
       <c r="K24" s="17">
-        <v>0</v>
+        <v>4.0069982142060388E-2</v>
       </c>
       <c r="L24" s="17">
-        <v>0</v>
+        <v>3.9026660008961947E-2</v>
       </c>
       <c r="M24" s="17">
-        <v>0</v>
+        <v>3.6910176504274417E-2</v>
       </c>
       <c r="N24" s="17">
-        <v>0</v>
+        <v>3.3812456560357598E-2</v>
       </c>
       <c r="O24" s="17">
-        <v>0</v>
+        <v>3.0550979335348422E-2</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
@@ -2045,28 +2088,28 @@
         <v>1</v>
       </c>
       <c r="H26" s="17">
-        <v>0</v>
+        <v>2.4944602281420009E-2</v>
       </c>
       <c r="I26" s="17">
-        <v>0</v>
+        <v>2.4969881307596198E-2</v>
       </c>
       <c r="J26" s="17">
-        <v>0</v>
+        <v>2.4590831019415674E-2</v>
       </c>
       <c r="K26" s="17">
-        <v>0</v>
+        <v>2.3786592897410894E-2</v>
       </c>
       <c r="L26" s="17">
-        <v>0</v>
+        <v>2.2743204117925381E-2</v>
       </c>
       <c r="M26" s="17">
-        <v>0</v>
+        <v>2.153599633333678E-2</v>
       </c>
       <c r="N26" s="17">
-        <v>0</v>
+        <v>2.0405347918105495E-2</v>
       </c>
       <c r="O26" s="17">
-        <v>0</v>
+        <v>1.9366743167810466E-2</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
@@ -2974,7 +3017,7 @@
       </c>
       <c r="G64" s="13"/>
       <c r="H64" s="66">
-        <f t="shared" ref="H63:H69" si="2">IF(E64&lt;$S$49,D46*(100%-$Q$46),D46*(100%-$Q$49))</f>
+        <f t="shared" ref="H64:H69" si="2">IF(E64&lt;$S$49,D46*(100%-$Q$46),D46*(100%-$Q$49))</f>
         <v>0.61373576606757674</v>
       </c>
       <c r="I64" s="13"/>
@@ -3274,7 +3317,7 @@
       </c>
       <c r="G71" s="79"/>
       <c r="H71" s="81">
-        <f t="shared" ref="H70:H77" si="3">IF(E71&lt;$S$50,E45*(100%-$Q$47),E45*(100%-$Q$50))</f>
+        <f t="shared" ref="H71:H77" si="3">IF(E71&lt;$S$50,E45*(100%-$Q$47),E45*(100%-$Q$50))</f>
         <v>6.7043023021993381E-3</v>
       </c>
       <c r="I71" s="79"/>
@@ -4845,6 +4888,1446 @@
       <c r="W109" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C110" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="89">
+        <v>2019</v>
+      </c>
+      <c r="F110" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" s="89"/>
+      <c r="H110" s="98">
+        <f>+D44-H62</f>
+        <v>6.6022474682462029E-2</v>
+      </c>
+      <c r="I110" s="89"/>
+      <c r="J110" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="K110" s="89"/>
+      <c r="L110" s="89"/>
+      <c r="M110" s="89"/>
+      <c r="N110" s="89"/>
+      <c r="O110" s="91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C111" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="6">
+        <v>2020</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" s="6"/>
+      <c r="H111" s="90">
+        <f t="shared" ref="H111:H117" si="14">+D45-H63</f>
+        <v>6.6866847595195678E-2</v>
+      </c>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C112" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="6">
+        <v>2025</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" s="6"/>
+      <c r="H112" s="90">
+        <f>+D46-H64</f>
+        <v>0.10072909518207007</v>
+      </c>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C113" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="6">
+        <v>2030</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="6"/>
+      <c r="H113" s="90">
+        <f t="shared" si="14"/>
+        <v>0.10116093468918819</v>
+      </c>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C114" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="6">
+        <v>2035</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114" s="6"/>
+      <c r="H114" s="90">
+        <f t="shared" si="14"/>
+        <v>0.10140276280810057</v>
+      </c>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C115" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="6">
+        <v>2040</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" s="6"/>
+      <c r="H115" s="90">
+        <f t="shared" si="14"/>
+        <v>0.1014353840829485</v>
+      </c>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C116" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="6">
+        <v>2045</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G116" s="6"/>
+      <c r="H116" s="90">
+        <f t="shared" si="14"/>
+        <v>0.10129733004656538</v>
+      </c>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C117" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="95">
+        <v>2050</v>
+      </c>
+      <c r="F117" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G117" s="95"/>
+      <c r="H117" s="99">
+        <f t="shared" si="14"/>
+        <v>0.10101729267387238</v>
+      </c>
+      <c r="I117" s="95"/>
+      <c r="J117" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K117" s="95"/>
+      <c r="L117" s="95"/>
+      <c r="M117" s="95"/>
+      <c r="N117" s="95"/>
+      <c r="O117" s="96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C118" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="89">
+        <v>2019</v>
+      </c>
+      <c r="F118" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G118" s="89"/>
+      <c r="H118" s="100">
+        <f>+E44-H70</f>
+        <v>3.856021418019483E-4</v>
+      </c>
+      <c r="I118" s="89"/>
+      <c r="J118" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="K118" s="89"/>
+      <c r="L118" s="89"/>
+      <c r="M118" s="89"/>
+      <c r="N118" s="89"/>
+      <c r="O118" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C119" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="6">
+        <v>2020</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" s="6"/>
+      <c r="H119" s="97">
+        <f t="shared" ref="H119:H125" si="15">+E45-H71</f>
+        <v>4.0993082795561138E-4</v>
+      </c>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C120" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="6">
+        <v>2025</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="6"/>
+      <c r="H120" s="97">
+        <f>+E46-H72</f>
+        <v>6.0935940794087495E-4</v>
+      </c>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C121" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="6">
+        <v>2030</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" s="6"/>
+      <c r="H121" s="97">
+        <f t="shared" si="15"/>
+        <v>5.9498462953493786E-4</v>
+      </c>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C122" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="6">
+        <v>2035</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" s="6"/>
+      <c r="H122" s="97">
+        <f t="shared" si="15"/>
+        <v>5.8435516240662802E-4</v>
+      </c>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C123" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="6">
+        <v>2040</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123" s="6"/>
+      <c r="H123" s="97">
+        <f t="shared" si="15"/>
+        <v>5.7699108756264442E-4</v>
+      </c>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+      <c r="O123" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C124" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="6">
+        <v>2045</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G124" s="6"/>
+      <c r="H124" s="97">
+        <f t="shared" si="15"/>
+        <v>5.7203013220165529E-4</v>
+      </c>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C125" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="95">
+        <v>2050</v>
+      </c>
+      <c r="F125" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" s="95"/>
+      <c r="H125" s="101">
+        <f t="shared" si="15"/>
+        <v>5.6904409262742688E-4</v>
+      </c>
+      <c r="I125" s="95"/>
+      <c r="J125" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K125" s="95"/>
+      <c r="L125" s="95"/>
+      <c r="M125" s="95"/>
+      <c r="N125" s="95"/>
+      <c r="O125" s="96" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C126" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="89">
+        <v>2019</v>
+      </c>
+      <c r="F126" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G126" s="89"/>
+      <c r="H126" s="98">
+        <f>+F44-H78</f>
+        <v>2.2305121817528528E-3</v>
+      </c>
+      <c r="I126" s="89"/>
+      <c r="J126" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="K126" s="89"/>
+      <c r="L126" s="89"/>
+      <c r="M126" s="89"/>
+      <c r="N126" s="89"/>
+      <c r="O126" s="91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C127" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="6">
+        <v>2020</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G127" s="6"/>
+      <c r="H127" s="90">
+        <f t="shared" ref="H127:H133" si="16">+F45-H79</f>
+        <v>2.0727654987758061E-3</v>
+      </c>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C128" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="6">
+        <v>2025</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" s="6"/>
+      <c r="H128" s="90">
+        <f t="shared" si="16"/>
+        <v>3.2331704366878634E-3</v>
+      </c>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C129" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="6">
+        <v>2030</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G129" s="6"/>
+      <c r="H129" s="90">
+        <f t="shared" si="16"/>
+        <v>3.2280385210230918E-3</v>
+      </c>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C130" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="6">
+        <v>2035</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G130" s="6"/>
+      <c r="H130" s="90">
+        <f t="shared" si="16"/>
+        <v>3.1569209571833505E-3</v>
+      </c>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C131" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="6">
+        <v>2040</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G131" s="6"/>
+      <c r="H131" s="90">
+        <f t="shared" si="16"/>
+        <v>3.0700608461920013E-3</v>
+      </c>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C132" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="6">
+        <v>2045</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G132" s="6"/>
+      <c r="H132" s="90">
+        <f t="shared" si="16"/>
+        <v>3.015393157770465E-3</v>
+      </c>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C133" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="95">
+        <v>2050</v>
+      </c>
+      <c r="F133" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" s="95"/>
+      <c r="H133" s="99">
+        <f t="shared" si="16"/>
+        <v>2.975563280279557E-3</v>
+      </c>
+      <c r="I133" s="95"/>
+      <c r="J133" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="K133" s="95"/>
+      <c r="L133" s="95"/>
+      <c r="M133" s="95"/>
+      <c r="N133" s="95"/>
+      <c r="O133" s="96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C134" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="89">
+        <v>2019</v>
+      </c>
+      <c r="F134" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" s="89"/>
+      <c r="H134" s="98">
+        <f>+G44-H86</f>
+        <v>1.1946657494881201E-4</v>
+      </c>
+      <c r="I134" s="89"/>
+      <c r="J134" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="K134" s="89"/>
+      <c r="L134" s="89"/>
+      <c r="M134" s="89"/>
+      <c r="N134" s="89"/>
+      <c r="O134" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C135" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="6">
+        <v>2020</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" s="6"/>
+      <c r="H135" s="90">
+        <f t="shared" ref="H135:H140" si="17">+G45-H87</f>
+        <v>9.2535630032186504E-5</v>
+      </c>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C136" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" s="6">
+        <v>2025</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G136" s="6"/>
+      <c r="H136" s="90">
+        <f t="shared" si="17"/>
+        <v>1.4649201599261892E-4</v>
+      </c>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C137" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="6">
+        <v>2030</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137" s="6"/>
+      <c r="H137" s="90">
+        <f t="shared" si="17"/>
+        <v>1.4525292704320155E-4</v>
+      </c>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C138" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="6">
+        <v>2035</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G138" s="6"/>
+      <c r="H138" s="90">
+        <f t="shared" si="17"/>
+        <v>1.4026606212547599E-4</v>
+      </c>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C139" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="6">
+        <v>2040</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139" s="6"/>
+      <c r="H139" s="90">
+        <f t="shared" si="17"/>
+        <v>1.3456228734876237E-4</v>
+      </c>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C140" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" s="6">
+        <v>2045</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G140" s="6"/>
+      <c r="H140" s="90">
+        <f t="shared" si="17"/>
+        <v>1.3118485216315873E-4</v>
+      </c>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C141" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" s="95">
+        <v>2050</v>
+      </c>
+      <c r="F141" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G141" s="95"/>
+      <c r="H141" s="99">
+        <f>+G51-H93</f>
+        <v>1.2899890200183993E-4</v>
+      </c>
+      <c r="I141" s="95"/>
+      <c r="J141" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="K141" s="95"/>
+      <c r="L141" s="95"/>
+      <c r="M141" s="95"/>
+      <c r="N141" s="95"/>
+      <c r="O141" s="96" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C142" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D142" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="89">
+        <v>2019</v>
+      </c>
+      <c r="F142" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G142" s="89"/>
+      <c r="H142" s="98">
+        <f>+H44-H94</f>
+        <v>3.9857899708616196E-2</v>
+      </c>
+      <c r="I142" s="89"/>
+      <c r="J142" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="K142" s="89"/>
+      <c r="L142" s="89"/>
+      <c r="M142" s="89"/>
+      <c r="N142" s="89"/>
+      <c r="O142" s="91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C143" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="6">
+        <v>2020</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G143" s="6"/>
+      <c r="H143" s="90">
+        <f t="shared" ref="H143:H149" si="18">+H45-H95</f>
+        <v>4.0165939062874467E-2</v>
+      </c>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C144" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="6">
+        <v>2025</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G144" s="6"/>
+      <c r="H144" s="90">
+        <f t="shared" si="18"/>
+        <v>6.0641874449127775E-2</v>
+      </c>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C145" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="6">
+        <v>2030</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145" s="6"/>
+      <c r="H145" s="90">
+        <f t="shared" si="18"/>
+        <v>6.0317453172136715E-2</v>
+      </c>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C146" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="6">
+        <v>2035</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G146" s="6"/>
+      <c r="H146" s="90">
+        <f t="shared" si="18"/>
+        <v>5.8746937525698206E-2</v>
+      </c>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C147" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="6">
+        <v>2040</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G147" s="6"/>
+      <c r="H147" s="90">
+        <f t="shared" si="18"/>
+        <v>5.5560989145911233E-2</v>
+      </c>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C148" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="6">
+        <v>2045</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G148" s="6"/>
+      <c r="H148" s="90">
+        <f t="shared" si="18"/>
+        <v>5.0897982883638171E-2</v>
+      </c>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C149" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="95">
+        <v>2050</v>
+      </c>
+      <c r="F149" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149" s="95"/>
+      <c r="H149" s="99">
+        <f t="shared" si="18"/>
+        <v>4.5988472340458109E-2</v>
+      </c>
+      <c r="I149" s="95"/>
+      <c r="J149" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="K149" s="95"/>
+      <c r="L149" s="95"/>
+      <c r="M149" s="95"/>
+      <c r="N149" s="95"/>
+      <c r="O149" s="96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C150" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="89">
+        <v>2019</v>
+      </c>
+      <c r="F150" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G150" s="89"/>
+      <c r="H150" s="98">
+        <f>+I44-H102</f>
+        <v>2.4944602281420036E-2</v>
+      </c>
+      <c r="I150" s="89"/>
+      <c r="J150" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="K150" s="89"/>
+      <c r="L150" s="89"/>
+      <c r="M150" s="89"/>
+      <c r="N150" s="89"/>
+      <c r="O150" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="151" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C151" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="6">
+        <v>2020</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G151" s="6"/>
+      <c r="H151" s="90">
+        <f t="shared" ref="H151:H157" si="19">+I45-H103</f>
+        <v>2.4969881307596198E-2</v>
+      </c>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C152" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="6">
+        <v>2025</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G152" s="6"/>
+      <c r="H152" s="90">
+        <f t="shared" si="19"/>
+        <v>3.7775626971107534E-2</v>
+      </c>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C153" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="6">
+        <v>2030</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G153" s="6"/>
+      <c r="H153" s="90">
+        <f t="shared" si="19"/>
+        <v>3.6540182781815589E-2</v>
+      </c>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C154" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" s="6">
+        <v>2035</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G154" s="6"/>
+      <c r="H154" s="90">
+        <f t="shared" si="19"/>
+        <v>3.4937363206968219E-2</v>
+      </c>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C155" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="6">
+        <v>2040</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G155" s="6"/>
+      <c r="H155" s="90">
+        <f t="shared" si="19"/>
+        <v>3.3082890256817377E-2</v>
+      </c>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C156" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="6">
+        <v>2045</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G156" s="6"/>
+      <c r="H156" s="90">
+        <f t="shared" si="19"/>
+        <v>3.1346025295420632E-2</v>
+      </c>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="157" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C157" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" s="95">
+        <v>2050</v>
+      </c>
+      <c r="F157" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G157" s="95"/>
+      <c r="H157" s="99">
+        <f t="shared" si="19"/>
+        <v>2.9750554789092998E-2</v>
+      </c>
+      <c r="I157" s="95"/>
+      <c r="J157" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="K157" s="95"/>
+      <c r="L157" s="95"/>
+      <c r="M157" s="95"/>
+      <c r="N157" s="95"/>
+      <c r="O157" s="96" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
